--- a/config_aomi/item_gun_config.xlsx
+++ b/config_aomi/item_gun_config.xlsx
@@ -434,18 +434,6 @@
     <t>圣光  V</t>
   </si>
   <si>
-    <t>gun_barrel_9</t>
-  </si>
-  <si>
-    <t>gun_barrel_10</t>
-  </si>
-  <si>
-    <t>gun_barrel_11</t>
-  </si>
-  <si>
-    <t>gun_barrel_12</t>
-  </si>
-  <si>
     <t>3dby_icon_p6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -757,7 +745,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>gun_barrel_9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>gun_barrel_8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1249,7 +1253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1301,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1316,25 +1320,25 @@
         <v>62</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="U1" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1345,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1357,13 +1361,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>22</v>
@@ -1460,19 +1464,19 @@
         <v>10345</v>
       </c>
       <c r="P4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1520,19 +1524,19 @@
         <v>10344</v>
       </c>
       <c r="P5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="S5" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1567,13 +1571,13 @@
         <v>51</v>
       </c>
       <c r="K6" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>63</v>
@@ -1582,22 +1586,22 @@
         <v>10343</v>
       </c>
       <c r="P6" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="Q6" s="26" t="s">
-        <v>132</v>
-      </c>
       <c r="R6" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1647,19 +1651,19 @@
         <v>10342</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1682,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H8" s="17">
         <v>7</v>
@@ -1697,10 +1701,10 @@
         <v>58</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>63</v>
@@ -1709,22 +1713,22 @@
         <v>10341</v>
       </c>
       <c r="P8" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="Q8" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="R8" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>140</v>
-      </c>
       <c r="T8" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1735,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1747,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H9" s="4">
         <v>9</v>
@@ -1757,10 +1761,10 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
@@ -1773,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
@@ -1785,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H10" s="4">
         <v>10</v>
@@ -1795,10 +1799,10 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
@@ -1811,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
@@ -1823,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H11" s="4">
         <v>11</v>
@@ -1833,10 +1837,10 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="7"/>
@@ -1849,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="D12" s="9">
         <v>3</v>
@@ -1861,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H12" s="4">
         <v>12</v>
@@ -1871,10 +1875,10 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="7"/>
@@ -2050,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2062,16 +2066,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -2095,20 +2099,20 @@
         <v>1</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="5" t="s">
         <v>71</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2131,20 +2135,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="5" t="s">
         <v>75</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2167,20 +2171,20 @@
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2203,20 +2207,20 @@
         <v>1</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>4</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="5" t="s">
         <v>73</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2227,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -2239,20 +2243,20 @@
         <v>1</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H22" s="4">
         <v>5</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/item_gun_config.xlsx
+++ b/config_aomi/item_gun_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.9\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27060" windowHeight="11280" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27060" windowHeight="11280" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,9 +513,6 @@
     <t>80级解锁</t>
   </si>
   <si>
-    <t>gun_barrel_12</t>
-  </si>
-  <si>
     <t>3dby_icon_phw</t>
   </si>
   <si>
@@ -659,19 +661,30 @@
   </si>
   <si>
     <t>100级解锁</t>
+  </si>
+  <si>
+    <r>
+      <t>gun_barrel_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,20 +716,13 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,142 +732,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -870,7 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,192 +772,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1101,257 +811,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1403,7 +871,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1448,64 +916,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1763,21 +1190,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
@@ -1797,7 +1223,7 @@
     <col min="20" max="20" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90.75" customHeight="1" spans="1:21">
+    <row r="1" spans="1:21" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1898,7 +1324,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1940,7 +1366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:20">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2000,7 +1426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2060,7 +1486,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2125,7 +1551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:20">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2187,7 +1613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:21">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2252,7 +1678,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:14">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2290,7 +1716,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:14">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2328,7 +1754,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:14">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2366,7 +1792,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:14">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2404,15 +1830,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2424,40 +1850,40 @@
         <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
         <v>107</v>
-      </c>
-      <c r="J13" t="s">
-        <v>108</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>56</v>
       </c>
       <c r="L13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="Q13" s="31" t="s">
         <v>84</v>
       </c>
       <c r="R13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="S13" s="28" t="s">
-        <v>112</v>
       </c>
       <c r="T13" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2465,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
@@ -2477,22 +1903,22 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="25" t="s">
+      <c r="J14" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2500,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2512,19 +1938,19 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
       </c>
       <c r="I15" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>36</v>
@@ -2534,7 +1960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:14">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2542,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="15">
         <v>2</v>
@@ -2554,16 +1980,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="5">
         <v>3</v>
       </c>
       <c r="I16" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>35</v>
@@ -2576,7 +2002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:14">
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2584,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="15">
         <v>3</v>
@@ -2596,31 +2022,31 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="5">
         <v>4</v>
       </c>
       <c r="I17" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2628,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -2640,20 +2066,20 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="25" t="s">
+      <c r="J18" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2661,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2673,23 +2099,23 @@
         <v>1</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2697,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2709,23 +2135,23 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" s="5">
         <v>2</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2733,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
@@ -2745,23 +2171,23 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21" s="5">
         <v>3</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2769,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -2781,23 +2207,23 @@
         <v>1</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="5">
         <v>4</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2805,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
@@ -2817,26 +2243,26 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="6">
         <v>5</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>